--- a/results/per/per_summary_selected_factors.xlsx
+++ b/results/per/per_summary_selected_factors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/andrea_sanchez_cgiar_org/Documents/3_chapter_PhD/HOLPA_factors_influencing_adoption_dfs/results/per/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{198397B5-9CB6-4F9F-B534-869E350AE60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BA2FCEA-6188-4796-B8CD-A92879EE0041}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{198397B5-9CB6-4F9F-B534-869E350AE60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD62CA30-A455-4F4A-B5C1-6A33E2D385E4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="870" windowWidth="29040" windowHeight="15840" xr2:uid="{9926C753-330A-4989-938C-108683B57DBD}"/>
   </bookViews>
@@ -2394,13 +2394,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2463,22 +2462,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B33BB908-B519-4F5D-960A-B8839F72E964}" name="Table1" displayName="Table1" ref="A1:Q48" totalsRowShown="0">
   <autoFilter ref="A1:Q48" xr:uid="{B33BB908-B519-4F5D-960A-B8839F72E964}">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Frequency of information exchange with other farmers"/>
-        <filter val="Household influence in resource governance"/>
-        <filter val="Household participation in resource governance"/>
-        <filter val="Household recovery capacity from shocks"/>
-        <filter val="Income stability"/>
-        <filter val="Income sufficiency"/>
-        <filter val="Years of farming land"/>
+        <filter val="num_info_exchange_sources"/>
+        <filter val="training_participation"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q48">
-    <sortCondition ref="A2:A48"/>
-    <sortCondition ref="B2:B48"/>
-  </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{96B9E4C3-0139-4670-98C6-886EB98F958A}" name="category_1"/>
     <tableColumn id="2" xr3:uid="{3A3883BB-60B7-41C7-9BAA-B6B9CA85F9AA}" name="factor"/>
@@ -2822,7 +2812,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K48" sqref="J48:K48"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,7 +3516,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -3542,16 +3532,16 @@
       <c r="E14" t="s">
         <v>512</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" t="s">
         <v>514</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>515</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>182</v>
       </c>
       <c r="J14" t="s">
@@ -3560,7 +3550,7 @@
       <c r="K14" t="s">
         <v>517</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>518</v>
       </c>
       <c r="M14" t="s">
@@ -3569,7 +3559,7 @@
       <c r="N14" t="s">
         <v>520</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="5" t="s">
         <v>521</v>
       </c>
       <c r="P14" t="s">
@@ -3579,7 +3569,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -3595,7 +3585,7 @@
       <c r="E15" t="s">
         <v>497</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>498</v>
       </c>
       <c r="G15" t="s">
@@ -3604,7 +3594,7 @@
       <c r="H15" t="s">
         <v>500</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>182</v>
       </c>
       <c r="J15" t="s">
@@ -3613,7 +3603,7 @@
       <c r="K15" t="s">
         <v>502</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>503</v>
       </c>
       <c r="M15" t="s">
@@ -3622,7 +3612,7 @@
       <c r="N15" t="s">
         <v>505</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="5" t="s">
         <v>506</v>
       </c>
       <c r="P15" t="s">
@@ -4056,7 +4046,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -4215,7 +4205,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -4234,7 +4224,7 @@
       <c r="F27" t="s">
         <v>366</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" t="s">
         <v>367</v>
       </c>
       <c r="H27" t="s">
@@ -4268,7 +4258,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -4321,7 +4311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4798,7 +4788,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -4851,7 +4841,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4870,7 +4860,7 @@
       <c r="F39" t="s">
         <v>543</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" t="s">
         <v>544</v>
       </c>
       <c r="H39" t="s">
@@ -4904,7 +4894,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -4923,7 +4913,7 @@
       <c r="F40" t="s">
         <v>558</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" t="s">
         <v>559</v>
       </c>
       <c r="H40" t="s">
@@ -5328,7 +5318,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>584</v>
       </c>

--- a/results/per/per_summary_selected_factors.xlsx
+++ b/results/per/per_summary_selected_factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/andrea_sanchez_cgiar_org/Documents/3_chapter_PhD/HOLPA_factors_influencing_adoption_dfs/results/per/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{198397B5-9CB6-4F9F-B534-869E350AE60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93EAAFE-942D-4776-9FE8-D30684531F88}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{198397B5-9CB6-4F9F-B534-869E350AE60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C13A6B-6E51-4431-A6EB-78D4F67840D0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="870" windowWidth="29040" windowHeight="15840" xr2:uid="{9926C753-330A-4989-938C-108683B57DBD}"/>
   </bookViews>
@@ -1336,7 +1336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,6 +1522,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1683,9 +1689,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1746,15 +1753,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B33BB908-B519-4F5D-960A-B8839F72E964}" name="Table1" displayName="Table1" ref="A1:P48" totalsRowShown="0">
-  <autoFilter ref="A1:P48" xr:uid="{B33BB908-B519-4F5D-960A-B8839F72E964}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Age"/>
-        <filter val="Children (&lt;18 years old) in household"/>
-        <filter val="Training participation"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P48" xr:uid="{B33BB908-B519-4F5D-960A-B8839F72E964}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P40">
+    <sortCondition ref="C2:C40"/>
+  </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{96B9E4C3-0139-4670-98C6-886EB98F958A}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{3A3883BB-60B7-41C7-9BAA-B6B9CA85F9AA}" name="Column2"/>
@@ -2094,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98549F93-EFA0-42BB-B4B6-6C02219BD37F}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,51 +2163,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="N2" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="O2" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -2219,1506 +2221,1496 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O4" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P4" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>274</v>
-      </c>
-      <c r="O5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P5" t="s">
-        <v>276</v>
+        <v>105</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
-        <v>275</v>
-      </c>
-      <c r="O6" t="s">
-        <v>277</v>
-      </c>
-      <c r="P6" t="s">
-        <v>278</v>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" t="s">
-        <v>279</v>
-      </c>
-      <c r="O7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P7" t="s">
-        <v>280</v>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" t="s">
+        <v>334</v>
+      </c>
+      <c r="O13" t="s">
+        <v>335</v>
+      </c>
+      <c r="P13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" t="s">
+        <v>334</v>
+      </c>
+      <c r="O14" t="s">
+        <v>335</v>
+      </c>
+      <c r="P14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H17" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" t="s">
-        <v>281</v>
-      </c>
-      <c r="O8" t="s">
-        <v>268</v>
-      </c>
-      <c r="P8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>283</v>
-      </c>
-      <c r="O9" t="s">
-        <v>275</v>
-      </c>
-      <c r="P9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" t="s">
-        <v>285</v>
-      </c>
-      <c r="O10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" t="s">
-        <v>288</v>
-      </c>
-      <c r="O11" t="s">
-        <v>289</v>
-      </c>
-      <c r="P11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" t="s">
-        <v>291</v>
-      </c>
-      <c r="O12" t="s">
-        <v>270</v>
-      </c>
-      <c r="P12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" t="s">
-        <v>293</v>
-      </c>
-      <c r="O13" t="s">
-        <v>267</v>
-      </c>
-      <c r="P13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>298</v>
-      </c>
-      <c r="I14" t="s">
-        <v>299</v>
-      </c>
-      <c r="J14" t="s">
-        <v>300</v>
-      </c>
-      <c r="K14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" t="s">
-        <v>301</v>
-      </c>
-      <c r="M14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" t="s">
-        <v>302</v>
-      </c>
-      <c r="O14" t="s">
-        <v>283</v>
-      </c>
-      <c r="P14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" t="s">
-        <v>307</v>
-      </c>
-      <c r="M15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" t="s">
-        <v>308</v>
-      </c>
-      <c r="O15" t="s">
-        <v>309</v>
-      </c>
-      <c r="P15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" t="s">
-        <v>281</v>
-      </c>
-      <c r="O16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>98</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="O17" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="P17" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="18" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>319</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>323</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>324</v>
+        <v>55</v>
       </c>
       <c r="N18" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="O18" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="P18" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="19" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" t="s">
-        <v>111</v>
-      </c>
-      <c r="N19" t="s">
-        <v>328</v>
-      </c>
-      <c r="O19" t="s">
-        <v>329</v>
-      </c>
-      <c r="P19" t="s">
-        <v>330</v>
+        <v>147</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" t="s">
-        <v>331</v>
-      </c>
-      <c r="O20" t="s">
-        <v>332</v>
-      </c>
-      <c r="P20" t="s">
-        <v>333</v>
+        <v>157</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" t="s">
-        <v>132</v>
-      </c>
-      <c r="M21" t="s">
-        <v>133</v>
-      </c>
-      <c r="N21" t="s">
-        <v>334</v>
-      </c>
-      <c r="O21" t="s">
-        <v>335</v>
-      </c>
-      <c r="P21" t="s">
-        <v>336</v>
+        <v>18</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="22" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" t="s">
-        <v>143</v>
-      </c>
-      <c r="N22" t="s">
-        <v>337</v>
-      </c>
-      <c r="O22" t="s">
-        <v>338</v>
-      </c>
-      <c r="P22" t="s">
-        <v>339</v>
+        <v>24</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" t="s">
-        <v>149</v>
-      </c>
-      <c r="J23" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" t="s">
-        <v>151</v>
-      </c>
-      <c r="L23" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" t="s">
-        <v>153</v>
-      </c>
-      <c r="N23" t="s">
-        <v>340</v>
-      </c>
-      <c r="O23" t="s">
-        <v>341</v>
-      </c>
-      <c r="P23" t="s">
-        <v>342</v>
+        <v>168</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="24" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" t="s">
-        <v>160</v>
-      </c>
-      <c r="K24" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M24" t="s">
-        <v>163</v>
-      </c>
-      <c r="N24" t="s">
-        <v>343</v>
-      </c>
-      <c r="O24" t="s">
-        <v>344</v>
-      </c>
-      <c r="P24" t="s">
-        <v>345</v>
+        <v>18</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="25" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" t="s">
-        <v>173</v>
-      </c>
-      <c r="M25" t="s">
-        <v>174</v>
-      </c>
-      <c r="N25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O25" t="s">
-        <v>347</v>
-      </c>
-      <c r="P25" t="s">
-        <v>348</v>
+        <v>24</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="26" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I26" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" t="s">
-        <v>183</v>
-      </c>
-      <c r="M26" t="s">
-        <v>184</v>
-      </c>
-      <c r="N26" t="s">
-        <v>349</v>
-      </c>
-      <c r="O26" t="s">
-        <v>350</v>
-      </c>
-      <c r="P26" t="s">
-        <v>351</v>
+        <v>18</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="27" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" t="s">
-        <v>189</v>
-      </c>
-      <c r="I27" t="s">
-        <v>190</v>
-      </c>
-      <c r="J27" t="s">
-        <v>191</v>
-      </c>
-      <c r="K27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M27" t="s">
-        <v>194</v>
-      </c>
-      <c r="N27" t="s">
-        <v>352</v>
-      </c>
-      <c r="O27" t="s">
-        <v>353</v>
-      </c>
-      <c r="P27" t="s">
-        <v>354</v>
+        <v>24</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="28" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="E28" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="F28" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
-      </c>
-      <c r="H28" t="s">
-        <v>358</v>
-      </c>
-      <c r="I28" t="s">
-        <v>359</v>
-      </c>
-      <c r="J28" t="s">
-        <v>360</v>
-      </c>
-      <c r="K28" t="s">
-        <v>201</v>
-      </c>
-      <c r="L28" t="s">
-        <v>361</v>
-      </c>
-      <c r="M28" t="s">
-        <v>362</v>
-      </c>
-      <c r="N28" t="s">
-        <v>363</v>
-      </c>
-      <c r="O28" t="s">
-        <v>364</v>
-      </c>
-      <c r="P28" t="s">
-        <v>365</v>
+        <v>18</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="29" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" t="s">
-        <v>198</v>
-      </c>
-      <c r="I29" t="s">
-        <v>199</v>
-      </c>
-      <c r="J29" t="s">
-        <v>200</v>
-      </c>
-      <c r="K29" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" t="s">
-        <v>202</v>
-      </c>
-      <c r="M29" t="s">
-        <v>203</v>
-      </c>
-      <c r="N29" t="s">
-        <v>366</v>
-      </c>
-      <c r="O29" t="s">
-        <v>367</v>
-      </c>
-      <c r="P29" t="s">
-        <v>368</v>
+        <v>24</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="30" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" t="s">
-        <v>208</v>
-      </c>
-      <c r="I30" t="s">
-        <v>209</v>
-      </c>
-      <c r="J30" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30" t="s">
-        <v>212</v>
-      </c>
-      <c r="M30" t="s">
-        <v>213</v>
-      </c>
-      <c r="N30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P30" t="s">
-        <v>371</v>
+        <v>18</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="31" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>217</v>
-      </c>
-      <c r="H31" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" t="s">
-        <v>219</v>
-      </c>
-      <c r="J31" t="s">
-        <v>220</v>
-      </c>
-      <c r="K31" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" t="s">
-        <v>222</v>
-      </c>
-      <c r="M31" t="s">
-        <v>223</v>
-      </c>
-      <c r="N31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O31" t="s">
-        <v>373</v>
-      </c>
-      <c r="P31" t="s">
-        <v>374</v>
+        <v>24</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="32" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32" t="s">
-        <v>228</v>
-      </c>
-      <c r="I32" t="s">
-        <v>229</v>
-      </c>
-      <c r="J32" t="s">
-        <v>230</v>
-      </c>
-      <c r="K32" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" t="s">
-        <v>232</v>
-      </c>
-      <c r="M32" t="s">
-        <v>233</v>
-      </c>
-      <c r="N32" t="s">
-        <v>375</v>
-      </c>
-      <c r="O32" t="s">
-        <v>376</v>
-      </c>
-      <c r="P32" t="s">
-        <v>377</v>
+        <v>178</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="33" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E33" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
-      </c>
-      <c r="H33" t="s">
-        <v>238</v>
-      </c>
-      <c r="I33" t="s">
-        <v>239</v>
-      </c>
-      <c r="J33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K33" t="s">
-        <v>241</v>
-      </c>
-      <c r="L33" t="s">
-        <v>242</v>
-      </c>
-      <c r="M33" t="s">
-        <v>243</v>
-      </c>
-      <c r="N33" t="s">
-        <v>378</v>
-      </c>
-      <c r="O33" t="s">
-        <v>379</v>
-      </c>
-      <c r="P33" t="s">
-        <v>380</v>
+        <v>227</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="34" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>247</v>
-      </c>
-      <c r="H34" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" t="s">
-        <v>249</v>
-      </c>
-      <c r="J34" t="s">
-        <v>250</v>
-      </c>
-      <c r="K34" t="s">
-        <v>251</v>
-      </c>
-      <c r="L34" t="s">
-        <v>252</v>
-      </c>
-      <c r="M34" t="s">
-        <v>253</v>
-      </c>
-      <c r="N34" t="s">
-        <v>381</v>
-      </c>
-      <c r="O34" t="s">
-        <v>382</v>
-      </c>
-      <c r="P34" t="s">
-        <v>383</v>
+        <v>237</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="35" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>257</v>
-      </c>
-      <c r="H35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I35" t="s">
-        <v>259</v>
-      </c>
-      <c r="J35" t="s">
-        <v>260</v>
-      </c>
-      <c r="K35" t="s">
-        <v>261</v>
-      </c>
-      <c r="L35" t="s">
-        <v>262</v>
-      </c>
-      <c r="M35" t="s">
-        <v>263</v>
-      </c>
-      <c r="N35" t="s">
-        <v>384</v>
-      </c>
-      <c r="O35" t="s">
-        <v>219</v>
-      </c>
-      <c r="P35" t="s">
-        <v>385</v>
+        <v>247</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="N36" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="O36" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="P36" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="37" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="3:16" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
